--- a/57/57-DanhGiaTieuChi.xlsx
+++ b/57/57-DanhGiaTieuChi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -183,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
@@ -555,7 +555,8 @@
         <v>9</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <f>SUM(C1:C10)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
